--- a/Docs/Lab01/Lab01_ReviewReport2.0.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport2.0.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -225,7 +225,7 @@
     <t>ClassDiagramDepPizzaShop_v1.0.png</t>
   </si>
   <si>
-    <t>GUI nu respecta layered architecture propus (ordersGUI are service)</t>
+    <t>PaymentAlert era in pachetul de Service, dar lucreaza la interfata, deci trebuie sa fie in pachetul de GUI</t>
   </si>
   <si>
     <t>A03</t>
@@ -243,16 +243,13 @@
     <t>A06</t>
   </si>
   <si>
-    <t>Da, observer (când se plasează un order, ajunge pe fereastra bucătarului)</t>
-  </si>
-  <si>
     <t>A07</t>
   </si>
   <si>
     <t>A08</t>
   </si>
   <si>
-    <t>Nu. PizzaService se ocupa si cu platitle, si cu afișarea meniului.</t>
+    <t>PizzaService se ocupa si cu platitle, si cu afișarea meniului. Am impartit în 2 clase.</t>
   </si>
   <si>
     <t>A09</t>
@@ -439,7 +436,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -472,11 +469,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -485,7 +482,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -493,17 +490,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right/>
       <top/>
@@ -520,7 +517,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top/>
       <bottom/>
@@ -528,12 +525,23 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,48 +550,37 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,13 +601,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -622,13 +619,13 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,25 +657,25 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
@@ -693,7 +690,7 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
@@ -705,7 +702,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
@@ -746,28 +743,28 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -785,20 +782,20 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -976,8 +973,8 @@
       <rgbColor rgb="ff5e88b1"/>
       <rgbColor rgb="ffeef3f4"/>
       <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ff000080"/>
       <rgbColor rgb="ffc00000"/>
       <rgbColor rgb="ffe5dfec"/>
@@ -2077,7 +2074,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2235,16 +2232,19 @@
       <c r="D16" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="E16" s="24"/>
-    </row>
-    <row r="17">
+      <c r="E16" s="21"/>
+    </row>
+    <row r="17" ht="13" customHeight="1">
+      <c r="A17" s="7"/>
       <c r="B17" t="s" s="3">
         <v>12</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-    </row>
-    <row r="18">
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" ht="13" customHeight="1">
+      <c r="A18" s="20"/>
       <c r="B18" s="4"/>
       <c r="C18" t="s" s="4">
         <v>5</v>
@@ -2252,6 +2252,7 @@
       <c r="D18" t="s" s="5">
         <v>12</v>
       </c>
+      <c r="E18" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2261,9 +2262,10 @@
   <hyperlinks>
     <hyperlink ref="D10" location="'Export Summary'!R1C1" tooltip="" display="Export Summary"/>
     <hyperlink ref="D10" location="'Requirements Phase Defects'!R1C1" tooltip="" display="Requirements Phase Defects"/>
-    <hyperlink ref="D12" location="'Architect. Design Phase Defects'!R1C1" tooltip="" display="Architect. Design Phase Defects"/>
-    <hyperlink ref="D14" location="'Coding Phase Defects'!R1C1" tooltip="" display="Coding Phase Defects"/>
-    <hyperlink ref="D16" location="'Tool-basedCodeAnalysis'!R1C1" tooltip="" display="Tool-basedCodeAnalysis"/>
+    <hyperlink ref="D12" location="'Requirements Phase Defects'!R1C1" tooltip="" display="Requirements Phase Defects"/>
+    <hyperlink ref="D14" location="'Architect. Design Phase Defects'!R1C1" tooltip="" display="Architect. Design Phase Defects"/>
+    <hyperlink ref="D16" location="'Coding Phase Defects'!R1C1" tooltip="" display="Coding Phase Defects"/>
+    <hyperlink ref="D18" location="'Tool-basedCodeAnalysis'!R1C1" tooltip="" display="Tool-basedCodeAnalysis"/>
     <hyperlink ref="D12" location="'Requirements Phase Defects'!R1C1" tooltip="" display="Requirements Phase Defects"/>
     <hyperlink ref="D14" location="'Architect. Design Phase Defects'!R1C1" tooltip="" display="Architect. Design Phase Defects"/>
     <hyperlink ref="D16" location="'Coding Phase Defects'!R1C1" tooltip="" display="Coding Phase Defects"/>
@@ -3036,12 +3038,8 @@
       <c r="C15" t="s" s="52">
         <v>63</v>
       </c>
-      <c r="D15" t="s" s="52">
-        <v>57</v>
-      </c>
-      <c r="E15" t="s" s="53">
-        <v>64</v>
-      </c>
+      <c r="D15" s="52"/>
+      <c r="E15" s="53"/>
       <c r="F15" s="41"/>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
@@ -3055,7 +3053,7 @@
         <v>7</v>
       </c>
       <c r="C16" t="s" s="52">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16" s="55"/>
       <c r="E16" s="53"/>
@@ -3072,13 +3070,13 @@
         <v>8</v>
       </c>
       <c r="C17" t="s" s="52">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s" s="53">
         <v>57</v>
       </c>
       <c r="E17" t="s" s="53">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F17" s="41"/>
       <c r="G17" s="28"/>
@@ -3093,7 +3091,7 @@
         <v>9</v>
       </c>
       <c r="C18" t="s" s="52">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D18" s="54"/>
       <c r="E18" s="55"/>
@@ -3110,7 +3108,7 @@
         <v>10</v>
       </c>
       <c r="C19" t="s" s="52">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D19" s="55"/>
       <c r="E19" s="53"/>
@@ -3308,7 +3306,7 @@
     <row r="2" ht="13.55" customHeight="1">
       <c r="A2" s="28"/>
       <c r="B2" t="s" s="32">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="33"/>
       <c r="D2" s="33"/>
@@ -3348,7 +3346,7 @@
         <v>21</v>
       </c>
       <c r="D4" t="s" s="69">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E4" s="70"/>
       <c r="F4" s="41"/>
@@ -3370,7 +3368,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s" s="71">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" s="72"/>
       <c r="F5" s="41"/>
@@ -3449,13 +3447,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="s" s="52">
+        <v>72</v>
+      </c>
+      <c r="D10" t="s" s="53">
         <v>73</v>
       </c>
-      <c r="D10" t="s" s="53">
+      <c r="E10" t="s" s="53">
         <v>74</v>
-      </c>
-      <c r="E10" t="s" s="53">
-        <v>75</v>
       </c>
       <c r="F10" s="41"/>
       <c r="G10" s="28"/>
@@ -3470,7 +3468,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="s" s="52">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="54"/>
       <c r="E11" s="55"/>
@@ -3487,7 +3485,7 @@
         <v>3</v>
       </c>
       <c r="C12" t="s" s="52">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12" s="54"/>
       <c r="E12" s="55"/>
@@ -3504,7 +3502,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s" s="52">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" s="55"/>
       <c r="E13" s="55"/>
@@ -3521,13 +3519,13 @@
         <v>5</v>
       </c>
       <c r="C14" t="s" s="52">
+        <v>78</v>
+      </c>
+      <c r="D14" t="s" s="53">
         <v>79</v>
       </c>
-      <c r="D14" t="s" s="53">
+      <c r="E14" t="s" s="53">
         <v>80</v>
-      </c>
-      <c r="E14" t="s" s="53">
-        <v>81</v>
       </c>
       <c r="F14" s="41"/>
       <c r="G14" s="28"/>
@@ -3542,13 +3540,13 @@
         <v>6</v>
       </c>
       <c r="C15" t="s" s="52">
+        <v>81</v>
+      </c>
+      <c r="D15" t="s" s="53">
         <v>82</v>
       </c>
-      <c r="D15" t="s" s="53">
+      <c r="E15" t="s" s="53">
         <v>83</v>
-      </c>
-      <c r="E15" t="s" s="53">
-        <v>84</v>
       </c>
       <c r="F15" s="41"/>
       <c r="G15" s="28"/>
@@ -3563,7 +3561,7 @@
         <v>7</v>
       </c>
       <c r="C16" t="s" s="52">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D16" s="55"/>
       <c r="E16" s="55"/>
@@ -3580,7 +3578,7 @@
         <v>8</v>
       </c>
       <c r="C17" t="s" s="52">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D17" s="55"/>
       <c r="E17" s="55"/>
@@ -3597,7 +3595,7 @@
         <v>9</v>
       </c>
       <c r="C18" t="s" s="52">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D18" s="55"/>
       <c r="E18" s="55"/>
@@ -3614,7 +3612,7 @@
         <v>10</v>
       </c>
       <c r="C19" t="s" s="52">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D19" s="54"/>
       <c r="E19" s="55"/>
@@ -3631,7 +3629,7 @@
         <v>11</v>
       </c>
       <c r="C20" t="s" s="52">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D20" s="55"/>
       <c r="E20" s="55"/>
@@ -3648,7 +3646,7 @@
         <v>12</v>
       </c>
       <c r="C21" t="s" s="52">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D21" s="54"/>
       <c r="E21" s="55"/>
@@ -3877,7 +3875,7 @@
     <row r="2" ht="13.55" customHeight="1">
       <c r="A2" s="28"/>
       <c r="B2" t="s" s="32">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="33"/>
       <c r="D2" s="33"/>
@@ -3914,7 +3912,7 @@
       <c r="A4" s="28"/>
       <c r="B4" s="29"/>
       <c r="C4" t="s" s="68">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4" s="70"/>
       <c r="E4" s="70"/>
@@ -3992,16 +3990,16 @@
         <v>31</v>
       </c>
       <c r="C9" t="s" s="50">
+        <v>92</v>
+      </c>
+      <c r="D9" t="s" s="50">
         <v>93</v>
       </c>
-      <c r="D9" t="s" s="50">
+      <c r="E9" t="s" s="50">
         <v>94</v>
       </c>
-      <c r="E9" t="s" s="50">
+      <c r="F9" t="s" s="50">
         <v>95</v>
-      </c>
-      <c r="F9" t="s" s="50">
-        <v>96</v>
       </c>
       <c r="G9" s="41"/>
       <c r="H9" s="28"/>
@@ -4338,7 +4336,7 @@
       <c r="A32" s="28"/>
       <c r="B32" s="29"/>
       <c r="C32" t="s" s="74">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="75"/>
       <c r="E32" s="75"/>
